--- a/PYTHON/SRC/끝말잇기/단어장.xlsx
+++ b/PYTHON/SRC/끝말잇기/단어장.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyun0\Documents\code\끝말잇기\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c1045218a9df02a/문서/code/WORKSPACE/PYTHON/SRC/끝말잇기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812B2F1B-8323-4DF5-B848-544657450AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{812B2F1B-8323-4DF5-B848-544657450AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C04383B6-2D88-462B-B477-9C5F2BCFF3A0}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="1995" windowWidth="21600" windowHeight="11295" xr2:uid="{CE5F8E5D-1B28-4A26-8BBE-CC73592E7776}"/>
+    <workbookView minimized="1" xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{CE5F8E5D-1B28-4A26-8BBE-CC73592E7776}"/>
   </bookViews>
   <sheets>
     <sheet name="단어장" sheetId="1" r:id="rId1"/>
+    <sheet name="중복" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2039,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA63BD3-253E-492A-BE4D-533AA23CCC9E}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3496,4 +3497,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899E97C2-C277-437C-87E4-90DCB7407BF0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>